--- a/salesforce.v1/src/test/resources/TestData/HrEmailed.xlsx
+++ b/salesforce.v1/src/test/resources/TestData/HrEmailed.xlsx
@@ -1167,8 +1167,8 @@
   </sheetPr>
   <dimension ref="B1:D356"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1458,8 +1458,8 @@
   </sheetPr>
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
